--- a/6.xlsx
+++ b/6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm\Desktop\信息\再次测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC31073-DD51-49A4-9633-C0DF507A688A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DA0FB3-B56E-4F92-AF6B-767512AAB8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -353,10 +353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A215"/>
+  <dimension ref="A1:A265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A215"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="A216" sqref="A216:A265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1439,6 +1439,256 @@
         <v>17004769836</v>
       </c>
     </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>16538678316</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>16232609451</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>16232610117</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>17023513920</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>17022305762</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>17022302863</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>16232609815</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>17010684845</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>16232604775</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>16232600359</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>17010682281</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>16535637901</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>16235758217</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>16232609275</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>16756117043</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>17006457895</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>17022308382</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>16756715363</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>16537678658</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>17170032071</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>16235758101</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>16538675855</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>16538672933</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>16538612022</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>16232612153</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>17022306817</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>16232606083</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>16535597528</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>17170031901</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>16535599577</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>16535598279</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>17170031889</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>16538676886</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>16535637957</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>16227681635</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>16538675928</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>16745334982</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>16232600960</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>17170032354</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>16535598097</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>16535599839</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>16535639387</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>16227681602</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>16535597657</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>16227689595</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>16538672895</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>17022302673</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>16235758014</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>16535638737</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>16535597227</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
